--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="125">
   <si>
     <t>DetailsDBData</t>
   </si>
@@ -397,126 +397,6 @@
   </si>
   <si>
     <t>ck</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>pkpOrg_Edited</t>
-  </si>
-  <si>
-    <t>pkpOrg_prod</t>
-  </si>
-  <si>
-    <t>SECRISK</t>
-  </si>
-  <si>
-    <t>delhiNCR</t>
-  </si>
-  <si>
-    <t>United Center</t>
-  </si>
-  <si>
-    <t>Wilmette District 39</t>
-  </si>
-  <si>
-    <t>ckorg</t>
-  </si>
-  <si>
-    <t>Glantz Design</t>
-  </si>
-  <si>
-    <t>Astro Integrated Systems</t>
-  </si>
-  <si>
-    <t>Central Security &amp; Communications</t>
-  </si>
-  <si>
-    <t>Sound Inc</t>
-  </si>
-  <si>
-    <t>Securisks</t>
-  </si>
-  <si>
-    <t>9700 Capital Ct</t>
-  </si>
-  <si>
-    <t>VaishaliMetro</t>
-  </si>
-  <si>
-    <t>1901 W Madison St</t>
-  </si>
-  <si>
-    <t>615 Locust Rd</t>
-  </si>
-  <si>
-    <t>1881 Oak Ave #300</t>
-  </si>
-  <si>
-    <t>1880 West Oak Pkwy, Suite 107</t>
-  </si>
-  <si>
-    <t>6831 East 32nd St., Ste. 200</t>
-  </si>
-  <si>
-    <t>1550 Shore Rd</t>
-  </si>
-  <si>
-    <t>5 Revere Drive, Suite 430</t>
-  </si>
-  <si>
-    <t>Mansas</t>
-  </si>
-  <si>
-    <t>Wilmette</t>
-  </si>
-  <si>
-    <t>Evanston</t>
-  </si>
-  <si>
-    <t>Marietta</t>
-  </si>
-  <si>
-    <t>Indianapolis</t>
-  </si>
-  <si>
-    <t>Naperville</t>
-  </si>
-  <si>
-    <t>Northbrook</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>110096</t>
-  </si>
-  <si>
-    <t>20110</t>
-  </si>
-  <si>
-    <t>60612</t>
-  </si>
-  <si>
-    <t>60091</t>
-  </si>
-  <si>
-    <t>60201</t>
-  </si>
-  <si>
-    <t>30062</t>
-  </si>
-  <si>
-    <t>46226</t>
-  </si>
-  <si>
-    <t>60563</t>
-  </si>
-  <si>
-    <t>60062</t>
   </si>
 </sst>
 </file>
@@ -616,19 +496,18 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="13.5" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="13.5" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="11.8775510204082" collapsed="true"/>
-    <col min="5" max="6" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,12 +1018,12 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,507 +1246,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="1:22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="149">
   <si>
     <t>DetailsDBData</t>
   </si>
@@ -397,6 +397,78 @@
   </si>
   <si>
     <t>ck</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>Omnilert</t>
+  </si>
+  <si>
+    <t>delhiNCR</t>
+  </si>
+  <si>
+    <t>nsNCR</t>
+  </si>
+  <si>
+    <t>theme org</t>
+  </si>
+  <si>
+    <t>Org46</t>
+  </si>
+  <si>
+    <t>brod</t>
+  </si>
+  <si>
+    <t>1901 W Madison St</t>
+  </si>
+  <si>
+    <t>202 Church Street SE, Suite 516 Leesburg, VA 20175</t>
+  </si>
+  <si>
+    <t>VaishaliMetro</t>
+  </si>
+  <si>
+    <t>ABC, CS</t>
+  </si>
+  <si>
+    <t>Leesburg</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>60612</t>
+  </si>
+  <si>
+    <t>20456</t>
+  </si>
+  <si>
+    <t>20175</t>
+  </si>
+  <si>
+    <t>110096</t>
+  </si>
+  <si>
+    <t>11252</t>
+  </si>
+  <si>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>OrgAnsal</t>
   </si>
 </sst>
 </file>
@@ -501,13 +573,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="13.2295918367347" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="13.2295918367347" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
+    <col min="5" max="6" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="11.3418367346939" collapsed="true"/>
+    <col min="9" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,7 +1095,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col min="1" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,7 +1318,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="1:22"/>
@@ -1254,9 +1326,499 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col min="1" max="1025" hidden="false" style="0" width="11.3418367346939" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="187">
   <si>
     <t>DetailsDBData</t>
   </si>
@@ -469,6 +469,120 @@
   </si>
   <si>
     <t>OrgAnsal</t>
+  </si>
+  <si>
+    <t>Norry Security</t>
+  </si>
+  <si>
+    <t>Ramp Inc.</t>
+  </si>
+  <si>
+    <t>pkpOrg_Edited</t>
+  </si>
+  <si>
+    <t>pkpOrg_prod</t>
+  </si>
+  <si>
+    <t>SECRISK</t>
+  </si>
+  <si>
+    <t>United Center</t>
+  </si>
+  <si>
+    <t>Wilmette District 39</t>
+  </si>
+  <si>
+    <t>ckorg</t>
+  </si>
+  <si>
+    <t>Glantz Design</t>
+  </si>
+  <si>
+    <t>Astro Integrated Systems</t>
+  </si>
+  <si>
+    <t>Central Security &amp; Communications</t>
+  </si>
+  <si>
+    <t>ArmourGrid Inc.</t>
+  </si>
+  <si>
+    <t>Securisks</t>
+  </si>
+  <si>
+    <t>8280 Greensboro Drive Suite 750</t>
+  </si>
+  <si>
+    <t>9700 Capital Ct</t>
+  </si>
+  <si>
+    <t>615 Locust Rd</t>
+  </si>
+  <si>
+    <t>1881 Oak Ave #300</t>
+  </si>
+  <si>
+    <t>1880 West Oak Pkwy, Suite 107</t>
+  </si>
+  <si>
+    <t>6831 East 32nd St., Ste. 200</t>
+  </si>
+  <si>
+    <t>1550 Shore Rd</t>
+  </si>
+  <si>
+    <t>5 Revere Drive, Suite 430</t>
+  </si>
+  <si>
+    <t>McLean</t>
+  </si>
+  <si>
+    <t>Mansas</t>
+  </si>
+  <si>
+    <t>Wilmette</t>
+  </si>
+  <si>
+    <t>Evanston</t>
+  </si>
+  <si>
+    <t>Marietta</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Naperville</t>
+  </si>
+  <si>
+    <t>Northbrook</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>22102</t>
+  </si>
+  <si>
+    <t>20110</t>
+  </si>
+  <si>
+    <t>60091</t>
+  </si>
+  <si>
+    <t>60201</t>
+  </si>
+  <si>
+    <t>30062</t>
+  </si>
+  <si>
+    <t>46226</t>
+  </si>
+  <si>
+    <t>60563</t>
+  </si>
+  <si>
+    <t>60062</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1520,7 @@
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1429,10 +1543,10 @@
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1441,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1487,7 +1601,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -1498,19 +1612,19 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1544,22 +1658,22 @@
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -1567,19 +1681,19 @@
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1590,19 +1704,19 @@
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1613,22 +1727,22 @@
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
@@ -1636,19 +1750,19 @@
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1659,22 +1773,22 @@
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -1682,22 +1796,22 @@
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
@@ -1705,22 +1819,22 @@
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
@@ -1728,22 +1842,22 @@
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
@@ -1751,19 +1865,19 @@
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1774,22 +1888,22 @@
     </row>
     <row r="20">
       <c r="C20" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1797,19 +1911,19 @@
     </row>
     <row r="21">
       <c r="C21" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="187">
   <si>
     <t>DetailsDBData</t>
   </si>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1555,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1601,7 +1601,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -1612,19 +1612,19 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1658,22 +1658,22 @@
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -1681,19 +1681,19 @@
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1704,19 +1704,19 @@
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
@@ -1750,19 +1750,19 @@
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1773,22 +1773,22 @@
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -1796,22 +1796,22 @@
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
@@ -1819,22 +1819,22 @@
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
@@ -1842,22 +1842,22 @@
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
@@ -1865,19 +1865,19 @@
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1888,22 +1888,22 @@
     </row>
     <row r="20">
       <c r="C20" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1911,19 +1911,19 @@
     </row>
     <row r="21">
       <c r="C21" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="187">
   <si>
     <t>DetailsDBData</t>
   </si>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="187">
   <si>
     <t>DetailsDBData</t>
   </si>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="188">
   <si>
     <t>DetailsDBData</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>60062</t>
+  </si>
+  <si>
+    <t>2FCS-01 ANSAL PLAZA, VAISHALI</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1779,7 @@
         <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="188">
   <si>
     <t>DetailsDBData</t>
   </si>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="188">
   <si>
     <t>DetailsDBData</t>
   </si>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="188">
   <si>
     <t>DetailsDBData</t>
   </si>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="193">
   <si>
     <t>DetailsDBData</t>
   </si>
@@ -586,6 +586,21 @@
   </si>
   <si>
     <t>2FCS-01 ANSAL PLAZA, VAISHALI</t>
+  </si>
+  <si>
+    <t>Illinois State Police</t>
+  </si>
+  <si>
+    <t>801 South 7th Street,</t>
+  </si>
+  <si>
+    <t>1FCS-40 ANSAL PLAZA, VAISHALI</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>62703</t>
   </si>
 </sst>
 </file>
@@ -1615,19 +1630,19 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1779,7 +1794,7 @@
         <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>

--- a/Test Data/OutputData.xlsx
+++ b/Test Data/OutputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4143" uniqueCount="193">
   <si>
     <t>DetailsDBData</t>
   </si>
